--- a/Downscaleddata/pdfs/bottom thetao_thresholds.xlsx
+++ b/Downscaleddata/pdfs/bottom thetao_thresholds.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.249492319100236</v>
+        <v>9.249492180980978</v>
       </c>
       <c r="C2" t="n">
-        <v>7.2490473528899</v>
+        <v>7.249047248251791</v>
       </c>
       <c r="D2" t="n">
-        <v>9.1131411301072</v>
+        <v>9.450550462036427</v>
       </c>
       <c r="E2" t="n">
-        <v>7.264383834843784</v>
+        <v>6.890510534567467</v>
       </c>
       <c r="F2" t="n">
-        <v>9.904341455780914</v>
+        <v>10.78533997816571</v>
       </c>
       <c r="G2" t="n">
-        <v>7.792725627883438</v>
+        <v>7.983046564903162</v>
       </c>
       <c r="H2" t="n">
-        <v>9.117636020952192</v>
+        <v>9.628621997020531</v>
       </c>
       <c r="I2" t="n">
-        <v>7.319917502948265</v>
+        <v>7.141563687632544</v>
       </c>
       <c r="J2" t="n">
-        <v>10.06084520069863</v>
+        <v>11.27794701152119</v>
       </c>
       <c r="K2" t="n">
-        <v>7.945522167707251</v>
+        <v>8.1370510003077</v>
       </c>
     </row>
   </sheetData>
